--- a/Data_processed/industry/Food_Global.xlsx
+++ b/Data_processed/industry/Food_Global.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/Food_Global.xlsx
+++ b/Data_processed/industry/Food_Global.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/Food_Global.xlsx
+++ b/Data_processed/industry/Food_Global.xlsx
@@ -134,6 +134,46 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +476,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>carbon (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ced (MJ)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
     </row>
@@ -451,8 +511,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.36533983</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pre-baked frozen fries</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2.435598866666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.7910959e-05</v>
       </c>
     </row>
     <row r="3">
@@ -461,8 +537,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.050916894</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Potatoes without skin</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33944596</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.4646541e-06</v>
       </c>
     </row>
     <row r="4">
@@ -471,8 +563,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.062112276</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Beer (bottle)</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.41408184</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.15457e-05</v>
       </c>
     </row>
     <row r="5">
@@ -481,8 +589,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.34538307</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Young gin</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3025538</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.4201309e-05</v>
       </c>
     </row>
     <row r="6">
@@ -491,8 +615,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.28008949</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Wine red</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.867263266666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.2064254e-05</v>
       </c>
     </row>
     <row r="7">
@@ -501,8 +641,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.29732439</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Wine rose</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.9821626</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.5267952e-05</v>
       </c>
     </row>
     <row r="8">
@@ -511,8 +667,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.31455928</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Wine white dry</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.097061866666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.847165e-05</v>
       </c>
     </row>
     <row r="9">
@@ -521,8 +693,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.14985747</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Baguette white</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9990498</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.785616e-05</v>
       </c>
     </row>
     <row r="10">
@@ -531,8 +719,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.14572234</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bread multigrain</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9714822666666667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.7087503e-05</v>
       </c>
     </row>
     <row r="11">
@@ -541,8 +745,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.17703517</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bread rye</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.180234466666667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.2908068e-05</v>
       </c>
     </row>
     <row r="12">
@@ -551,8 +771,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.14474345</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bread white water</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9649563333333333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.6905544e-05</v>
       </c>
     </row>
     <row r="13">
@@ -561,8 +797,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.12391632</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bread whole wheat</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8261088</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.3034105e-05</v>
       </c>
     </row>
     <row r="14">
@@ -571,8 +823,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.21531825</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Currant Bun</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1.435455</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.0024295e-05</v>
       </c>
     </row>
     <row r="15">
@@ -581,8 +849,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.22521493</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Crispbread</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.501432866666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.1863932e-05</v>
       </c>
     </row>
     <row r="16">
@@ -591,8 +875,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.30742135</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Croissant</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.049475666666666</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.7144821e-05</v>
       </c>
     </row>
     <row r="17">
@@ -601,8 +901,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.14474345</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>White bread hard</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9649563333333333</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.6905544e-05</v>
       </c>
     </row>
     <row r="18">
@@ -611,8 +927,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.14474345</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>White bread soft</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9649563333333333</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.6905544e-05</v>
       </c>
     </row>
     <row r="19">
@@ -621,8 +953,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.49559298</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mealworms</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3.3039532</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.2122982e-05</v>
       </c>
     </row>
     <row r="20">
@@ -631,8 +979,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.06930737100000001</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Seaweed kelp raw</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4620491400000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.2883156e-05</v>
       </c>
     </row>
     <row r="21">
@@ -641,8 +1005,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.50332702</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chicken egg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3.355513466666666</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.3560619e-05</v>
       </c>
     </row>
     <row r="22">
@@ -651,8 +1031,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.24810901</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Applesauce (can)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1.654060066666667</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.6119584e-05</v>
       </c>
     </row>
     <row r="23">
@@ -661,8 +1057,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.25712249</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Applesauce (glass)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1.714149933333333</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.7795048e-05</v>
       </c>
     </row>
     <row r="24">
@@ -671,8 +1083,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.047335063</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3155670866666667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.798847699999999e-06</v>
       </c>
     </row>
     <row r="25">
@@ -681,8 +1109,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.10852171</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Apricots</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7234780666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.0172488e-05</v>
       </c>
     </row>
     <row r="26">
@@ -691,8 +1135,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.09980760599999999</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Avocado</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.66538404</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8552673e-05</v>
       </c>
     </row>
     <row r="27">
@@ -701,8 +1161,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.052711734</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.35141156</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.7982868e-06</v>
       </c>
     </row>
     <row r="28">
@@ -711,8 +1187,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0.18380902</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Coconut milk (can)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1.225393466666667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.4167222e-05</v>
       </c>
     </row>
     <row r="29">
@@ -721,8 +1213,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.11092229</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Coconut milk (pack)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7394819333333335</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.0618718e-05</v>
       </c>
     </row>
     <row r="30">
@@ -731,8 +1239,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.22910734</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dates - dried</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1.527382266666667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.258747e-05</v>
       </c>
     </row>
     <row r="31">
@@ -741,8 +1265,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0.36528665</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Figs - dried</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2.435244333333333</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6.7901074e-05</v>
       </c>
     </row>
     <row r="32">
@@ -751,8 +1291,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.10729932</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Figs</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7153288000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.9945265e-05</v>
       </c>
     </row>
     <row r="33">
@@ -761,8 +1317,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0.17855325</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fruit snack</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1.190355</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.3190255e-05</v>
       </c>
     </row>
     <row r="34">
@@ -771,8 +1343,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.094418662</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Grapes</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6294577466666667</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.7550952e-05</v>
       </c>
     </row>
     <row r="35">
@@ -781,8 +1369,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0.061755855</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4117057</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.1479447e-05</v>
       </c>
     </row>
     <row r="36">
@@ -791,8 +1395,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0.059688976</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Lemon</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3979265066666667</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.1095247e-05</v>
       </c>
     </row>
     <row r="37">
@@ -801,8 +1421,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0.067121405</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mandarine</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4474760333333333</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.2476819e-05</v>
       </c>
     </row>
     <row r="38">
@@ -811,8 +1447,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0.15485735</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1.032382333333334</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.8785558e-05</v>
       </c>
     </row>
     <row r="39">
@@ -821,8 +1473,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0.079565448</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Honeydew melon</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.53043632</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.4789972e-05</v>
       </c>
     </row>
     <row r="40">
@@ -831,8 +1499,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0.20989674</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Olives (can)</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1.3993116</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.9016521e-05</v>
       </c>
     </row>
     <row r="41">
@@ -841,8 +1525,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.21891022</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Olives (glass)</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1.459401466666667</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.0691985e-05</v>
       </c>
     </row>
     <row r="42">
@@ -851,8 +1551,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0.054856733</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3657115533333333</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0197009e-05</v>
       </c>
     </row>
     <row r="43">
@@ -861,8 +1577,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.057965901</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Peach</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.38643934</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0774954e-05</v>
       </c>
     </row>
     <row r="44">
@@ -871,8 +1603,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.048194988</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Pineapple</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.32129992</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.9586943e-06</v>
       </c>
     </row>
     <row r="45">
@@ -881,8 +1629,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.67828581</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4.521905400000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00012608272</v>
       </c>
     </row>
     <row r="46">
@@ -891,8 +1655,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0.50380775</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Stuffed biscuit</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3.358718333333333</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.3649979e-05</v>
       </c>
     </row>
     <row r="47">
@@ -901,8 +1681,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0.45342451</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Apple pie with butter</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>3.022830066666667</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8.4284522e-05</v>
       </c>
     </row>
     <row r="48">
@@ -911,8 +1707,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>0.28958851</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Apple pie with margarine</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1.930590066666667</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.3829974e-05</v>
       </c>
     </row>
     <row r="49">
@@ -921,8 +1733,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0.45249494</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Biscuit - wheat/whole wheat</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3.016632933333334</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8.411173000000001e-05</v>
       </c>
     </row>
     <row r="50">
@@ -931,8 +1759,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0.34670209</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Biscuit - fruit</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2.311347266666667</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6.4446495e-05</v>
       </c>
     </row>
     <row r="51">
@@ -941,8 +1785,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>0.39683089</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Biscuit</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2.645539266666667</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.376465500000001e-05</v>
       </c>
     </row>
     <row r="52">
@@ -951,8 +1811,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0.16997227</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Gingerbread</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1.133148466666667</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.1595186e-05</v>
       </c>
     </row>
     <row r="53">
@@ -961,8 +1837,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>0.7459206</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cake with butter</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4.972804000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.00013865497</v>
       </c>
     </row>
     <row r="54">
@@ -971,8 +1863,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0.41842951</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cake without butter</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2.789530066666667</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7.7779499e-05</v>
       </c>
     </row>
     <row r="55">
@@ -981,8 +1889,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>0.49702982</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Syrup waffle</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3.313532133333334</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.2390068e-05</v>
       </c>
     </row>
     <row r="56">
@@ -991,8 +1915,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>0.18027495</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Bread dough, pizza base/pie</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1.201833</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.3510294e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1001,8 +1941,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>0.12223122</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Wheat flour</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8148748</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.2720871e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1011,8 +1967,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>0.24327135</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Muesli - crispy with fruit</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1.621809</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.5220338e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1021,8 +1993,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>0.14689212</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Oatmeal</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9792808</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.7304946e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1031,8 +2019,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>0.17399791</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1.159986066666667</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.234349e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1041,8 +2045,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>0.29566006</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rice - pericarp</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1.971067066666667</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.4958579e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1051,8 +2071,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>0.34510515</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rice - white</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2.300701</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.4149648e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1061,8 +2097,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>0.20943048</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Bean sprouts</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1.3962032</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.8929851e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1071,8 +2123,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0.1262021</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Frozen green beans (plastic)</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8413473333333334</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.3458996e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1081,8 +2149,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>0.19204075</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Green beans (can)</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1.280271666666667</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.5697371e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1091,8 +2175,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>0.20105422</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Green beans (glass)</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1.340361466666667</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.7372835e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,8 +2201,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>0.072538213</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Green beans (plastic)</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.4835880866666667</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.3483719e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1111,8 +2227,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>0.084889822</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Broccoli</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5659321466666667</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.577969e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1121,8 +2253,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>0.035901529</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Carrot</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.2393435266666667</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.6735327e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,8 +2279,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>0.084889822</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Cauliflower</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5659321466666667</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.577969e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1141,8 +2305,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>0.04785215</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Chicory</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.3190143333333333</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8.894966000000001e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1151,8 +2331,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>0.22402256</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Zucchini</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1.493483733333334</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.164229e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1161,8 +2357,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>0.20882999</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cucumber with peel</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1.392199933333333</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.8818228e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1171,8 +2383,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>0.054364688</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Kale</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.3624312533333334</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0105545e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1181,8 +2409,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>0.052793724</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Lettuce, medium</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.35195816</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9.8135275e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1191,8 +2435,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>0.052793724</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Lettuce</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.35195816</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.8135275e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1201,8 +2461,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>0.28736799</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mushrooms</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1.9157866</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.3417214e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1211,8 +2487,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>0.043145569</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Onion</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2876371266666667</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8.0200863e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1221,8 +2513,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0.20609499</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Peas with carrots (canned)</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1.3739666</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.8309835e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1231,8 +2539,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>0.21510846</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Peas with carrots (glass)</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1.4340564</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.9985298e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1241,8 +2565,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>0.07298294900000001</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Peas - frozen</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.4865529933333334</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.3566389e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1251,8 +2591,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>0.12283028</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Spinach - frozen</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8188685333333333</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.2832227e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1261,8 +2617,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>0.35385312</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Bell pepper</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2.3590208</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6.5775759e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1271,8 +2643,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>0.19220991</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Corn (canned)</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1.2813994</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.5728816e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1281,8 +2669,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>0.20122339</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Corn (glass)</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1.341489266666667</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.7404279e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1291,8 +2695,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>0.19876809</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1.3251206</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.6947878e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1301,8 +2721,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>0.8476673</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Fish salade</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>5.651115333333333</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.00015756809</v>
       </c>
     </row>
     <row r="88">
@@ -1311,8 +2747,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>0.83808985</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Hummus natural</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>5.587265666666667</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.00015578779</v>
       </c>
     </row>
     <row r="89">
@@ -1321,8 +2773,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>1.2020375</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>8.013583333333335</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.00022343996</v>
       </c>
     </row>
     <row r="90">
@@ -1331,8 +2799,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>0.21240893</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Gravy from gravy powder  25% fat</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1.416059533333333</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3.9483497e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1341,8 +2825,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>0.37596667</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>French fries sauce</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2.506444466666667</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6.9886323e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1351,8 +2851,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>0.7597663099999999</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mayonnaise</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>5.065108733333333</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00014122867</v>
       </c>
     </row>
     <row r="93">
@@ -1361,8 +2877,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>0.28015672</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Oriental sauce (glass)</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1.867711466666667</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5.2076752e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1371,8 +2903,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>0.15306454</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Tomato sauce (glass)</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1.020430266666667</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.8452303e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1381,8 +2929,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>0.62806325</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Potato Chips</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>4.187088333333334</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00011674713</v>
       </c>
     </row>
     <row r="96">
@@ -1391,8 +2955,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>0.87878906</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Croquette - beef</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>5.858593733333334</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.00016335314</v>
       </c>
     </row>
     <row r="97">
@@ -1401,8 +2981,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>0.12132427</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.8088284666666666</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.2552284e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1411,8 +3007,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>0.69924958</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sausage roll</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>4.661663866666667</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.00012997956</v>
       </c>
     </row>
     <row r="99">
@@ -1421,8 +3033,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>0.52102237</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Frikandel</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>3.473482466666666</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9.6849908e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1431,8 +3059,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>1.4923773</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Cheese 20+</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>9.949182</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.00027740958</v>
       </c>
     </row>
     <row r="101">
@@ -1441,8 +3085,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>1.5783606</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Cheese Edam 40+</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>10.522404</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.00029339255</v>
       </c>
     </row>
     <row r="102">
@@ -1451,8 +3111,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>1.2144401</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Goat cheese fresh</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>8.096267333333333</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.00022574541</v>
       </c>
     </row>
     <row r="103">
@@ -1461,8 +3137,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>1.8801542</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Cheese Gouda 48+</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>12.53436133333333</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.00034949124</v>
       </c>
     </row>
     <row r="104">
@@ -1471,8 +3163,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>1.2075426</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Mozzarella</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>8.050284000000001</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.00022446328</v>
       </c>
     </row>
     <row r="105">
@@ -1481,8 +3189,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>1.8801542</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Aged cheese 48+</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>12.53436133333333</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.00034949124</v>
       </c>
     </row>
     <row r="106">
@@ -1491,8 +3215,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>1.2471903</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cheese spread 48+</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>8.314602000000001</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.00023183316</v>
       </c>
     </row>
     <row r="107">
@@ -1501,8 +3241,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B107" t="n">
-        <v>0.30121902</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Stock cube - vegetable</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2.0081268</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5.5991903e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1511,8 +3267,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B108" t="n">
-        <v>0.195606</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Milk churn</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1.30404</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.6360096e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1521,8 +3293,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B109" t="n">
-        <v>0.6131386</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Cream</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4.087590666666666</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.00011397287</v>
       </c>
     </row>
     <row r="110">
@@ -1531,8 +3319,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B110" t="n">
-        <v>0.27097815</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Custard - full variety of flavors</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1.806521</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.0370599e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1541,8 +3345,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B111" t="n">
-        <v>0.27097815</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Custard - vanilla</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1.806521</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5.0370599e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1551,8 +3371,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B112" t="n">
-        <v>0.6377555499999999</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Cottage cheese - whole</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4.251703666666667</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.00011854878</v>
       </c>
     </row>
     <row r="113">
@@ -1561,8 +3397,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>0.58414792</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Cream - vanilla ice cream</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>3.894319466666667</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.00010858396</v>
       </c>
     </row>
     <row r="114">
@@ -1571,8 +3423,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B114" t="n">
-        <v>0.33964524</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Chocolate milk - whole</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2.2643016</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6.313473700000001e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1581,8 +3449,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B115" t="n">
-        <v>0.32461182</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Chocolate milk semi-skimmed</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2.1640788</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6.0340258e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1591,8 +3475,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B116" t="n">
-        <v>0.27009008</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Milk semi-skimmed</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1.800600533333333</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5.0205521e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1601,8 +3501,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>0.26173818</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Milk skimmed</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1.7449212</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4.8653033e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1611,8 +3527,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B118" t="n">
-        <v>0.27844199</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Milk whole</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1.856279933333333</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5.1758009e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1621,8 +3553,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>0.29294721</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Yogurt drink - sweetener</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1.9529814</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5.4454303e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1631,8 +3579,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>0.31634283</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Yogurt whole</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>2.1089522</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.8803184e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1641,8 +3605,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>0.30799093</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Yogurt semi-skimmed</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2.053272866666667</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5.7250695e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1651,8 +3631,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>0.28908725</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Yogurt low-fat with fruits</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1.927248333333333</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5.3736797e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1661,8 +3657,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>0.29963902</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Yogurt low fat</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1.997593466666667</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5.5698207e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1671,8 +3683,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>0.49172181</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>3.2781454</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9.1403391e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1681,8 +3709,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>0.06307046500000001</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Cola Light</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4204697666666667</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.1723813e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1691,8 +3735,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>0.079905276</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Icetea</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.53270184</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.4853141e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1701,8 +3761,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>0.076675226</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Fruit drink - 12% fruit concentrate</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5111681733333333</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.4252725e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1711,8 +3787,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>0.060531697</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Fruit drink - 8% fruit concentrate</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4035446466666667</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.1251896e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1721,8 +3813,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>0.083978919</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Apple juice</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.55985946</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.5610367e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1731,8 +3839,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B130" t="n">
-        <v>0.17389539</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Orange juice pasteurized</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1.1593026</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.2324433e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1741,8 +3865,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B131" t="n">
-        <v>0.081440765</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Syrup light</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5429384333333334</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.5138564e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1751,8 +3891,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B132" t="n">
-        <v>0.16914484</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Syrup</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1.127632266666667</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.1441381e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1761,8 +3917,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B133" t="n">
-        <v>0.47265078</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Syrup sweetened</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>3.1510052</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8.7858385e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1771,8 +3943,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B134" t="n">
-        <v>0.031384856</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Mineral water - average</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.2092323733333334</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5.8339538e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1781,8 +3969,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B135" t="n">
-        <v>0.074878476</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Coke</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.49918984</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.3918737e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1791,8 +3995,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>0.06307046500000001</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Soft drink light</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.4204697666666667</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.1723813e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1801,8 +4021,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B137" t="n">
-        <v>0.067203269</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Soda sugar and caffeine</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.4480217933333333</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.2492036e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1811,8 +4047,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>0.92915945</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>6.194396333333334</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.00017271621</v>
       </c>
     </row>
     <row r="139">
@@ -1821,8 +4073,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>0.65534123</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Almonds - without membrane</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4.368941533333333</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.00012181768</v>
       </c>
     </row>
     <row r="140">
@@ -1831,8 +4099,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>0.56588946</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cashew nuts - unsalted</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3.7725964</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.00010519</v>
       </c>
     </row>
     <row r="141">
@@ -1841,8 +4125,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>0.5127027</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Hazelnuts - unsalted</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3.418018</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9.5303412e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1851,8 +4151,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B142" t="n">
-        <v>0.20857583</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Flax seed</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1.390505533333333</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.8770983e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1861,8 +4177,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B143" t="n">
-        <v>1.0164865</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Peanuts - unsalted</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>6.776576666666667</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.00018894894</v>
       </c>
     </row>
     <row r="144">
@@ -1871,8 +4203,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>0.23223132</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Pistachios - salted</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1.5482088</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.3168169e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1881,8 +4229,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B145" t="n">
-        <v>0.23365341</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Pistachios - unsalted</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1.5576894</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4.3432514e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1891,8 +4255,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>0.4278321</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Walnuts - unsalted</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2.852214</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7.9527294e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1901,8 +4281,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>0.22162656</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Kidney beans (can)</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1.4775104</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.1196911e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1911,8 +4307,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>0.23064004</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Kidney beans (glass)</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1.537600266666667</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4.2872375e-05</v>
       </c>
     </row>
     <row r="149">
@@ -1921,8 +4333,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B149" t="n">
-        <v>0.93250313</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Chickpeas</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>6.216687533333333</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.00017333774</v>
       </c>
     </row>
     <row r="150">
@@ -1931,8 +4359,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>0.96331452</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Infant formula - milk powder</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>6.4220968</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0001790651</v>
       </c>
     </row>
     <row r="151">
@@ -1941,8 +4385,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B151" t="n">
-        <v>0.4441415</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Sprinkles milk</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>2.960943333333334</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8.255895600000001e-05</v>
       </c>
     </row>
     <row r="152">
@@ -1951,8 +4411,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>0.29370121</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Sprinkles pure</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1.958008066666667</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.4594461e-05</v>
       </c>
     </row>
     <row r="153">
@@ -1961,8 +4437,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B153" t="n">
-        <v>0.83629532</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Chocolate milk</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>5.575302133333333</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.00015545422</v>
       </c>
     </row>
     <row r="154">
@@ -1971,8 +4463,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>0.60109326</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Chocolate spread duo</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4.0072884</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.00011173383</v>
       </c>
     </row>
     <row r="155">
@@ -1981,8 +4489,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>0.61393308</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Chocolate spread hazelnut</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4.092887200000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.00011412056</v>
       </c>
     </row>
     <row r="156">
@@ -1991,8 +4515,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B156" t="n">
-        <v>0.15631007</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Honey (glass)</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1.042067133333333</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.9055597e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2001,8 +4541,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B157" t="n">
-        <v>0.11770887</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Honey (bottle)</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.7847258</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.1880237e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2011,8 +4567,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B158" t="n">
-        <v>0.10646364</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Water ice</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.7097576</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.9789925e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2021,8 +4593,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B159" t="n">
-        <v>0.25121442</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Jam (glass)</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1.6747628</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4.6696831e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2031,8 +4619,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B160" t="n">
-        <v>0.10893221</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Granulated sugar</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.7262147333333334</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.0248794e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2041,8 +4645,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B161" t="n">
-        <v>0.17600784</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Apple syrup</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1.1733856</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.2717104e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2051,8 +4671,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B162" t="n">
-        <v>1.686694</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Butter - salted</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>11.24462666666667</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.00031353002</v>
       </c>
     </row>
     <row r="163">
@@ -2061,8 +4697,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B163" t="n">
-        <v>1.6865822</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Butter - unsalted</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>11.24388133333333</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.00031350925</v>
       </c>
     </row>
     <row r="164">
@@ -2071,8 +4723,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>0.6643382</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Frying fat</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>4.428921333333333</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.00012349008</v>
       </c>
     </row>
     <row r="165">
@@ -2081,8 +4749,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>0.3238982</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Halvarine</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>2.159321333333334</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6.0207609e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2091,8 +4775,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B166" t="n">
-        <v>0.66469044</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Margarine</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>4.4312696</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.00012355555</v>
       </c>
     </row>
     <row r="167">
@@ -2101,8 +4801,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>0.97471783</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Olive oil</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>6.498118866666667</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0001811848</v>
       </c>
     </row>
     <row r="168">
@@ -2111,8 +4827,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B168" t="n">
-        <v>0.671748</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sunflower oil</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>4.47832</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.00012486744</v>
       </c>
     </row>
     <row r="169">
@@ -2121,8 +4853,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B169" t="n">
-        <v>2.5126631</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Catfish</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>16.75108733333333</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.00046706476</v>
       </c>
     </row>
     <row r="170">
@@ -2131,8 +4879,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B170" t="n">
-        <v>0.88979768</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Fried fish</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>5.931984533333334</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.00016539947</v>
       </c>
     </row>
     <row r="171">
@@ -2141,8 +4905,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>0.80558189</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Cod fillet</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>5.370545933333334</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.00014974507</v>
       </c>
     </row>
     <row r="172">
@@ -2151,8 +4931,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B172" t="n">
-        <v>0.7236153400000001</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Fish sticks</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>4.824102266666667</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00013450877</v>
       </c>
     </row>
     <row r="173">
@@ -2161,8 +4957,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B173" t="n">
-        <v>0.27324203</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Herring in tomato sauce</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1.821613533333334</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.0791419e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2171,8 +4983,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>0.48976891</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Herring in (sweet) and sour</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>3.265126066666667</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9.1040379e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2181,8 +5009,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B175" t="n">
-        <v>0.35084143</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Herring salted</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>2.338942866666667</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6.5215934e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2191,8 +5035,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B176" t="n">
-        <v>0.84575023</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Lemon sole</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>5.638334866666667</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.00015721174</v>
       </c>
     </row>
     <row r="177">
@@ -2201,8 +5061,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B177" t="n">
-        <v>0.2603938</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Mackerel fillet smoked</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1.735958666666667</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.8403134e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2211,8 +5087,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B178" t="n">
-        <v>1.6231768</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Pangasius</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>10.82117866666667</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.00030172317</v>
       </c>
     </row>
     <row r="179">
@@ -2221,8 +5113,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B179" t="n">
-        <v>0.84575023</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Plaice</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>5.638334866666667</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.00015721174</v>
       </c>
     </row>
     <row r="180">
@@ -2231,8 +5139,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>1.0463103</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Pollock</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>6.975402000000001</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.00019449271</v>
       </c>
     </row>
     <row r="181">
@@ -2241,8 +5165,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B181" t="n">
-        <v>0.82624202</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Canned salmon - farmed fish</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>5.508280133333334</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.00015358547</v>
       </c>
     </row>
     <row r="182">
@@ -2251,8 +5191,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>0.52204826</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Canned salmon - wild catch</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>3.480321733333334</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9.7040605e-05</v>
       </c>
     </row>
     <row r="183">
@@ -2261,8 +5217,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B183" t="n">
-        <v>0.79722565</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Salmon fillet - farmed fish</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>5.314837666666667</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.00014819178</v>
       </c>
     </row>
     <row r="184">
@@ -2271,8 +5243,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B184" t="n">
-        <v>0.49303189</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Salmon fillet - wild catch</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>3.286879266666666</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9.1646915e-05</v>
       </c>
     </row>
     <row r="185">
@@ -2281,8 +5269,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B185" t="n">
-        <v>0.89004515</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Smoked salmon - farmed fish</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>5.933634333333333</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.00016544547</v>
       </c>
     </row>
     <row r="186">
@@ -2291,8 +5295,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B186" t="n">
-        <v>0.5520520799999999</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Smoked salmon - wild catch</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>3.6803472</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.00010261785</v>
       </c>
     </row>
     <row r="187">
@@ -2301,8 +5321,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B187" t="n">
-        <v>1.5744724</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Dutch shrimps</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>10.49648266666667</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.00029266979</v>
       </c>
     </row>
     <row r="188">
@@ -2311,8 +5347,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B188" t="n">
-        <v>2.8323433</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Tilapia</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>18.88228866666667</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.00052648832</v>
       </c>
     </row>
     <row r="189">
@@ -2321,8 +5373,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B189" t="n">
-        <v>1.538351</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Trout</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>10.25567333333333</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.00028595538</v>
       </c>
     </row>
     <row r="190">
@@ -2331,8 +5399,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B190" t="n">
-        <v>2.0517297</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Canned tuna</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>13.678198</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.00038138446</v>
       </c>
     </row>
     <row r="191">
@@ -2341,8 +5425,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B191" t="n">
-        <v>0.56711395</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Gourmet fish</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>3.780759666666667</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.00010541761</v>
       </c>
     </row>
     <row r="192">
@@ -2351,8 +5451,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B192" t="n">
-        <v>3.3316908</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Beef fritters</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>22.211272</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0006193092</v>
       </c>
     </row>
     <row r="193">
@@ -2361,8 +5477,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B193" t="n">
-        <v>4.0715359</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Beef roast</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>27.14357266666667</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.00075683482</v>
       </c>
     </row>
     <row r="194">
@@ -2371,8 +5503,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B194" t="n">
-        <v>3.3316908</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Beef steak</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>22.211272</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0006193092</v>
       </c>
     </row>
     <row r="195">
@@ -2381,8 +5529,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B195" t="n">
-        <v>0.96336515</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Chicken breast</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>6.422434333333333</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.00017907451</v>
       </c>
     </row>
     <row r="196">
@@ -2391,8 +5555,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B196" t="n">
-        <v>0.96336515</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Chicken with skin</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>6.422434333333333</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.00017907451</v>
       </c>
     </row>
     <row r="197">
@@ -2401,8 +5581,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B197" t="n">
-        <v>3.0517751</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Hamburger</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20.34516733333333</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.00056727726</v>
       </c>
     </row>
     <row r="198">
@@ -2411,8 +5607,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B198" t="n">
-        <v>3.3928424</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Minced meat - beef</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>22.61894933333334</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.00063067632</v>
       </c>
     </row>
     <row r="199">
@@ -2421,8 +5633,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B199" t="n">
-        <v>2.2798675</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Minced meat - half-and-half</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>15.19911666666667</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.0004237917</v>
       </c>
     </row>
     <row r="200">
@@ -2431,8 +5659,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B200" t="n">
-        <v>1.110149</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Pork - lean</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>7.400993333333334</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.00020635933</v>
       </c>
     </row>
     <row r="201">
@@ -2441,8 +5685,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B201" t="n">
-        <v>1.110149</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Pork - fat</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>7.400993333333334</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.00020635933</v>
       </c>
     </row>
     <row r="202">
@@ -2451,8 +5711,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B202" t="n">
-        <v>1.110149</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Pork shoulder chop</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>7.400993333333334</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.00020635933</v>
       </c>
     </row>
     <row r="203">
@@ -2461,8 +5737,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B203" t="n">
-        <v>1.8660138</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Knaksausage (can)</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>12.440092</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.00034686278</v>
       </c>
     </row>
     <row r="204">
@@ -2471,8 +5763,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B204" t="n">
-        <v>1.8750273</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Knaksausage (glass)</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>12.500182</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.00034853824</v>
       </c>
     </row>
     <row r="205">
@@ -2481,8 +5789,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B205" t="n">
-        <v>1.5262153</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Pork bratwurst</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>10.17476866666667</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.00028369955</v>
       </c>
     </row>
     <row r="206">
@@ -2491,8 +5815,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>2.8557599</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Beef smoked sausage</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>19.03839933333333</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0005308411</v>
       </c>
     </row>
     <row r="207">
@@ -2501,8 +5841,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B207" t="n">
-        <v>2.7906548</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Veal</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>18.60436533333333</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.00051873907</v>
       </c>
     </row>
     <row r="208">
@@ -2511,8 +5867,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B208" t="n">
-        <v>0.50314166</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Vegetarian minced meat - mycoprotein</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>3.354277733333334</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>9.3526163e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2521,8 +5893,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B209" t="n">
-        <v>0.64903839</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Vegetarian luncheon meat</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>4.3269226</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.00012064608</v>
       </c>
     </row>
     <row r="210">
@@ -2531,8 +5919,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B210" t="n">
-        <v>0.099610554</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Soy drink natural</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.6640703600000001</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.8516044e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2541,8 +5945,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B211" t="n">
-        <v>0.4906848</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Tahoe</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>3.271232</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>9.1210628e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2551,8 +5971,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B212" t="n">
-        <v>0.49281159</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Vegetarian disc</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>3.2854106</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>9.160596499999999e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2561,8 +5997,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B213" t="n">
-        <v>0.39161281</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Vegetarian hamburger</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>2.610752066666667</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7.2794694e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2571,8 +6023,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B214" t="n">
-        <v>0.6535462399999999</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Vegetarian schnitzel</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>4.356974933333333</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.00012148402</v>
       </c>
     </row>
     <row r="215">
@@ -2581,8 +6049,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B215" t="n">
-        <v>1.4206859</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Breakfast bacon</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>9.471239333333335</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.00026408328</v>
       </c>
     </row>
     <row r="216">
@@ -2591,8 +6075,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B216" t="n">
-        <v>3.650124</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Beef smoked meat</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>24.33416</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.00067850095</v>
       </c>
     </row>
     <row r="217">
@@ -2601,8 +6101,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B217" t="n">
-        <v>1.2665149</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Chicken breast</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>8.443432666666666</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.00023542531</v>
       </c>
     </row>
     <row r="218">
@@ -2611,8 +6127,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B218" t="n">
-        <v>2.3519493</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Filet Americain</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>15.679662</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.00043719059</v>
       </c>
     </row>
     <row r="219">
@@ -2621,8 +6153,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B219" t="n">
-        <v>1.4206859</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Gammon</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>9.471239333333335</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.00026408328</v>
       </c>
     </row>
     <row r="220">
@@ -2631,8 +6179,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B220" t="n">
-        <v>1.421539</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Shoulder ham</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>9.476926666666667</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.00026424187</v>
       </c>
     </row>
     <row r="221">
@@ -2641,8 +6205,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B221" t="n">
-        <v>0.73093072</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Spread liver sausage</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>4.872871466666667</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.00013586859</v>
       </c>
     </row>
     <row r="222">
@@ -2651,8 +6231,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B222" t="n">
-        <v>1.0693922</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Roast minced meat</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>7.129281333333334</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.00019878327</v>
       </c>
     </row>
     <row r="223">
@@ -2661,8 +6257,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B223" t="n">
-        <v>2.0128015</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Cooked sausage</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>13.41867666666667</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.00037414831</v>
       </c>
     </row>
     <row r="224">
@@ -2671,8 +6283,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B224" t="n">
-        <v>0.83972473</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Sandwich sausage</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>5.598164866666667</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.00015609169</v>
       </c>
     </row>
     <row r="225">
@@ -2681,8 +6309,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B225" t="n">
-        <v>3.2221326</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Beef sausage</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>21.480884</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.00059894404</v>
       </c>
     </row>
     <row r="226">
@@ -2691,8 +6335,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B226" t="n">
-        <v>1.9522277</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Saveloy</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>13.01485133333333</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.00036288859</v>
       </c>
     </row>
     <row r="227">
@@ -2701,8 +6361,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B227" t="n">
-        <v>0.03051931</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Baking (1.5 MJe per kg product)</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.2034620666666667</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3.67356</v>
+      </c>
+      <c r="F227" t="n">
+        <v>5.6730623e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2711,8 +6387,24 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B228" t="n">
-        <v>0.022380827</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Boiling (1.1 MJe per kg product)</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.1492055133333333</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.693944</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4.1602457e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2721,11 +6413,28 @@
           <t>food</t>
         </is>
       </c>
-      <c r="B229" t="n">
-        <v>0.06103862</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Roasting chicken (3 MJe per kg product)</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4069241333333334</v>
+      </c>
+      <c r="E229" t="n">
+        <v>7.3471201</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.1346125e-05</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>